--- a/Features_Groups.xlsx
+++ b/Features_Groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Kaggle\House Prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9531D6B2-194B-40C6-8E35-3D1DCCC450DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393617D6-A912-48F8-BA71-D962D1716F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{540473E1-2FE0-4279-9A72-E3AC7D8A5743}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="192">
   <si>
     <t>Feature</t>
   </si>
@@ -540,9 +540,6 @@
     <t>Accessibility</t>
   </si>
   <si>
-    <t>Lot Carachteristics</t>
-  </si>
-  <si>
     <t>House Condition</t>
   </si>
   <si>
@@ -588,9 +585,6 @@
     <t>Feature ID</t>
   </si>
   <si>
-    <t>Featured Variable</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -</t>
   </si>
   <si>
@@ -603,9 +597,6 @@
     <t>Dummy</t>
   </si>
   <si>
-    <t>TotalBsmtArea</t>
-  </si>
-  <si>
     <t>TotalBathroom</t>
   </si>
   <si>
@@ -613,6 +604,12 @@
   </si>
   <si>
     <t>PorchArea</t>
+  </si>
+  <si>
+    <t>Lot Charactheristics</t>
+  </si>
+  <si>
+    <t>New Feature</t>
   </si>
 </sst>
 </file>
@@ -650,7 +647,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,12 +819,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -885,9 +876,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -976,9 +964,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1307,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC54080-1007-48D7-822D-AB1735021B79}">
   <dimension ref="B2:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1309,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1336,10 +1321,10 @@
         <v>160</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -1352,13 +1337,13 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G3" s="35"/>
+      <c r="F3" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
@@ -1370,14 +1355,14 @@
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>185</v>
+      <c r="F4" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -1390,14 +1375,14 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>185</v>
+      <c r="F5" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -1410,14 +1395,14 @@
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>185</v>
+      <c r="E6" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1430,14 +1415,14 @@
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1450,14 +1435,14 @@
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="35" t="s">
-        <v>185</v>
+      <c r="F8" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -1470,14 +1455,14 @@
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>185</v>
+      <c r="E9" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -1490,14 +1475,14 @@
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>185</v>
+      <c r="E10" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -1510,14 +1495,14 @@
       <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="35" t="s">
-        <v>185</v>
+      <c r="F11" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -1530,14 +1515,14 @@
       <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>185</v>
+      <c r="E12" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -1550,14 +1535,14 @@
       <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>185</v>
+      <c r="E13" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -1570,14 +1555,14 @@
       <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>185</v>
+      <c r="F14" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -1590,14 +1575,14 @@
       <c r="D15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F15" s="35" t="s">
-        <v>185</v>
+      <c r="F15" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -1610,14 +1595,14 @@
       <c r="D16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="35" t="s">
-        <v>185</v>
+      <c r="F16" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -1630,14 +1615,14 @@
       <c r="D17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="35" t="s">
-        <v>185</v>
+      <c r="F17" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -1650,14 +1635,14 @@
       <c r="D18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="35" t="s">
-        <v>185</v>
+      <c r="F18" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -1670,14 +1655,14 @@
       <c r="D19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>185</v>
+      <c r="E19" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -1690,14 +1675,14 @@
       <c r="D20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>185</v>
+      <c r="E20" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -1710,14 +1695,14 @@
       <c r="D21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F21" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>185</v>
+      <c r="F21" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -1730,14 +1715,14 @@
       <c r="D22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>185</v>
+      <c r="F22" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -1750,14 +1735,14 @@
       <c r="D23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="F23" s="35" t="s">
-        <v>185</v>
+      <c r="F23" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -1770,14 +1755,14 @@
       <c r="D24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="35" t="s">
-        <v>185</v>
+      <c r="F24" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -1790,14 +1775,14 @@
       <c r="D25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="35" t="s">
-        <v>185</v>
+      <c r="F25" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -1810,14 +1795,14 @@
       <c r="D26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="F26" s="35" t="s">
-        <v>185</v>
+      <c r="F26" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -1830,14 +1815,14 @@
       <c r="D27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>185</v>
+      <c r="E27" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -1850,14 +1835,14 @@
       <c r="D28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>185</v>
+      <c r="E28" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -1870,14 +1855,14 @@
       <c r="D29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="35" t="s">
-        <v>185</v>
+      <c r="F29" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -1890,14 +1875,14 @@
       <c r="D30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="F30" s="35" t="s">
-        <v>185</v>
+      <c r="F30" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -1910,14 +1895,14 @@
       <c r="D31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>185</v>
+      <c r="E31" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -1930,14 +1915,14 @@
       <c r="D32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F32" s="35" t="s">
-        <v>185</v>
+      <c r="F32" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -1950,14 +1935,14 @@
       <c r="D33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F33" s="35" t="s">
-        <v>185</v>
+      <c r="F33" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -1970,14 +1955,14 @@
       <c r="D34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="35" t="s">
-        <v>185</v>
+      <c r="F34" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -1990,14 +1975,14 @@
       <c r="D35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F35" s="35" t="s">
-        <v>185</v>
+      <c r="F35" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -2010,14 +1995,14 @@
       <c r="D36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F36" s="35" t="s">
-        <v>185</v>
+      <c r="F36" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -2030,14 +2015,14 @@
       <c r="D37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F37" s="35" t="s">
-        <v>185</v>
+      <c r="F37" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
@@ -2050,14 +2035,14 @@
       <c r="D38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>185</v>
+      <c r="F38" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -2070,14 +2055,14 @@
       <c r="D39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>185</v>
+      <c r="F39" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -2090,14 +2075,14 @@
       <c r="D40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F40" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>185</v>
+      <c r="F40" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -2110,14 +2095,14 @@
       <c r="D41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>185</v>
+      <c r="E41" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
@@ -2130,14 +2115,14 @@
       <c r="D42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>185</v>
+      <c r="E42" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
@@ -2150,14 +2135,14 @@
       <c r="D43" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>185</v>
+      <c r="E43" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
@@ -2170,14 +2155,14 @@
       <c r="D44" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="35" t="s">
-        <v>185</v>
+      <c r="F44" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
@@ -2190,14 +2175,14 @@
       <c r="D45" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="31" t="s">
-        <v>172</v>
+      <c r="E45" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>185</v>
+        <v>188</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -2210,14 +2195,14 @@
       <c r="D46" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="31" t="s">
-        <v>172</v>
+      <c r="E46" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G46" s="35" t="s">
-        <v>185</v>
+        <v>188</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
@@ -2230,14 +2215,14 @@
       <c r="D47" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="31" t="s">
-        <v>172</v>
+      <c r="E47" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>185</v>
+        <v>188</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -2250,14 +2235,14 @@
       <c r="D48" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="31" t="s">
-        <v>172</v>
+      <c r="E48" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>185</v>
+        <v>188</v>
+      </c>
+      <c r="G48" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
@@ -2270,14 +2255,14 @@
       <c r="D49" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E49" s="21" t="s">
-        <v>173</v>
+      <c r="E49" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="G49" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
@@ -2290,14 +2275,14 @@
       <c r="D50" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="21" t="s">
-        <v>173</v>
+      <c r="E50" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G50" s="35" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
@@ -2310,14 +2295,14 @@
       <c r="D51" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="21" t="s">
-        <v>173</v>
+      <c r="E51" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G51" s="35" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
@@ -2330,14 +2315,14 @@
       <c r="D52" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="21" t="s">
-        <v>173</v>
+      <c r="E52" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G52" s="35" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
@@ -2350,14 +2335,14 @@
       <c r="D53" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F53" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G53" s="35" t="s">
-        <v>185</v>
+      <c r="F53" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
@@ -2370,14 +2355,14 @@
       <c r="D54" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G54" s="35" t="s">
-        <v>185</v>
+      <c r="F54" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
@@ -2390,14 +2375,14 @@
       <c r="D55" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F55" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>185</v>
+      <c r="F55" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
@@ -2410,14 +2395,14 @@
       <c r="D56" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="F56" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G56" s="35" t="s">
-        <v>185</v>
+      <c r="E56" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
@@ -2430,14 +2415,14 @@
       <c r="D57" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E57" s="34" t="s">
+      <c r="E57" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="35" t="s">
-        <v>185</v>
+      <c r="F57" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
@@ -2450,14 +2435,14 @@
       <c r="D58" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E58" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>185</v>
+      <c r="E58" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G58" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
@@ -2470,14 +2455,14 @@
       <c r="D59" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E59" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G59" s="35" t="s">
-        <v>185</v>
+      <c r="E59" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
@@ -2490,14 +2475,12 @@
       <c r="D60" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E60" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="F60" s="35" t="s">
-        <v>185</v>
-      </c>
+      <c r="E60" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F60" s="34"/>
       <c r="G60" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
@@ -2510,14 +2493,12 @@
       <c r="D61" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E61" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="F61" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G61" s="35" t="s">
-        <v>185</v>
+      <c r="E61" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
@@ -2530,14 +2511,12 @@
       <c r="D62" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E62" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="F62" s="35" t="s">
-        <v>185</v>
-      </c>
+      <c r="E62" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F62" s="34"/>
       <c r="G62" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -2550,14 +2529,12 @@
       <c r="D63" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E63" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G63" s="35" t="s">
-        <v>185</v>
+      <c r="E63" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
@@ -2570,14 +2547,12 @@
       <c r="D64" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E64" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="F64" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G64" s="35" t="s">
-        <v>185</v>
+      <c r="E64" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
@@ -2590,14 +2565,12 @@
       <c r="D65" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E65" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="F65" s="35" t="s">
-        <v>185</v>
-      </c>
+      <c r="E65" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F65" s="34"/>
       <c r="G65" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
@@ -2610,14 +2583,12 @@
       <c r="D66" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E66" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="F66" s="35" t="s">
-        <v>185</v>
-      </c>
+      <c r="E66" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F66" s="34"/>
       <c r="G66" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
@@ -2630,14 +2601,14 @@
       <c r="D67" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F67" s="35" t="s">
-        <v>185</v>
+      <c r="F67" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
@@ -2650,14 +2621,14 @@
       <c r="D68" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E68" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F68" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G68" s="35" t="s">
-        <v>185</v>
+      <c r="E68" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F68" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G68" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
@@ -2670,14 +2641,14 @@
       <c r="D69" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E69" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F69" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G69" s="35" t="s">
-        <v>185</v>
+      <c r="E69" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F69" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
@@ -2690,14 +2661,14 @@
       <c r="D70" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E70" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F70" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G70" s="35" t="s">
-        <v>185</v>
+      <c r="E70" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F70" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
@@ -2710,14 +2681,14 @@
       <c r="D71" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E71" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F71" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G71" s="35" t="s">
-        <v>185</v>
+      <c r="E71" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F71" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G71" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
@@ -2730,14 +2701,14 @@
       <c r="D72" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E72" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F72" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G72" s="35" t="s">
-        <v>185</v>
+      <c r="E72" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F72" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
@@ -2750,14 +2721,14 @@
       <c r="D73" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E73" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G73" s="35" t="s">
-        <v>185</v>
+      <c r="E73" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G73" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
@@ -2770,14 +2741,14 @@
       <c r="D74" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E74" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G74" s="35" t="s">
-        <v>185</v>
+      <c r="E74" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G74" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
@@ -2790,14 +2761,14 @@
       <c r="D75" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E75" s="33" t="s">
+      <c r="E75" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="F75" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G75" s="35" t="s">
-        <v>185</v>
+      <c r="F75" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G75" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
@@ -2810,14 +2781,14 @@
       <c r="D76" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E76" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="F76" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G76" s="35" t="s">
-        <v>185</v>
+      <c r="E76" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G76" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
@@ -2830,14 +2801,14 @@
       <c r="D77" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E77" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="F77" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G77" s="35" t="s">
-        <v>185</v>
+      <c r="E77" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F77" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G77" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
@@ -2850,14 +2821,14 @@
       <c r="D78" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E78" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="F78" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G78" s="35" t="s">
-        <v>185</v>
+      <c r="E78" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F78" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G78" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
@@ -2870,14 +2841,14 @@
       <c r="D79" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E79" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="F79" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G79" s="35" t="s">
-        <v>185</v>
+      <c r="E79" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F79" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G79" s="34" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
@@ -2890,14 +2861,14 @@
       <c r="D80" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E80" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="F80" s="35" t="s">
-        <v>185</v>
+      <c r="E80" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F80" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
@@ -2910,14 +2881,14 @@
       <c r="D81" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E81" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="F81" s="35" t="s">
-        <v>185</v>
+      <c r="E81" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
